--- a/uploads/template_users.xlsx
+++ b/uploads/template_users.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS-A407M\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>First Name</t>
   </si>
@@ -44,151 +39,82 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Willard</t>
-  </si>
-  <si>
-    <t>Lura</t>
-  </si>
-  <si>
-    <t>Dawn</t>
-  </si>
-  <si>
-    <t>Kaelyn</t>
-  </si>
-  <si>
-    <t>Otto</t>
-  </si>
-  <si>
-    <t>Cecilia</t>
-  </si>
-  <si>
-    <t>Courtney</t>
-  </si>
-  <si>
-    <t>River</t>
-  </si>
-  <si>
-    <t>Bernie</t>
-  </si>
-  <si>
-    <t>Elvie</t>
-  </si>
-  <si>
-    <t>Gulgowski</t>
-  </si>
-  <si>
-    <t>Wyman</t>
-  </si>
-  <si>
-    <t>Kuphal</t>
-  </si>
-  <si>
-    <t>Nader</t>
-  </si>
-  <si>
-    <t>Maggio</t>
-  </si>
-  <si>
-    <t>Funk</t>
-  </si>
-  <si>
-    <t>Sipes</t>
-  </si>
-  <si>
-    <t>Kuvalis</t>
-  </si>
-  <si>
-    <t>Johnston</t>
-  </si>
-  <si>
-    <t>Sanford</t>
-  </si>
-  <si>
-    <t>qkuphal@maggio.com</t>
-  </si>
-  <si>
-    <t>otto97@gmail.com</t>
-  </si>
-  <si>
-    <t>ritchie.delphia@gmail.com</t>
-  </si>
-  <si>
-    <t>amos.denesik@gmail.com</t>
-  </si>
-  <si>
-    <t>providenci.schmeler@homenick.com</t>
-  </si>
-  <si>
-    <t>greenfelder.tania@lind.com</t>
-  </si>
-  <si>
-    <t>russ77@yahoo.com</t>
-  </si>
-  <si>
-    <t>iva82@kemmer.com</t>
-  </si>
-  <si>
-    <t>america.oconner@hotmail.com</t>
-  </si>
-  <si>
-    <t>schneider.jevon@homenick.com</t>
-  </si>
-  <si>
-    <t>}P\U8oPHj|</t>
-  </si>
-  <si>
-    <t>c7fo9)p?</t>
-  </si>
-  <si>
-    <t>$2!@OtmkE#</t>
-  </si>
-  <si>
-    <t>,&lt;ews;rsgq</t>
-  </si>
-  <si>
-    <t>DH`mJnI*[;Q'^yF7l</t>
-  </si>
-  <si>
-    <t>RE)@?J</t>
-  </si>
-  <si>
-    <t>_bXt(nq</t>
-  </si>
-  <si>
-    <t>U[sT:2</t>
-  </si>
-  <si>
-    <t>l6.0]&gt;8Y&lt;-t}`L0sY&lt;</t>
-  </si>
-  <si>
-    <t>r10p^EF&lt;/ews;rsgq</t>
-  </si>
-  <si>
-    <t>1-956-628-5040</t>
-  </si>
-  <si>
-    <t>(891) 727-8354</t>
-  </si>
-  <si>
-    <t>(282) 401-0039</t>
-  </si>
-  <si>
-    <t>587.830.2747</t>
-  </si>
-  <si>
-    <t>(873) 568-4418</t>
-  </si>
-  <si>
-    <t>516.450.6503 x9718</t>
-  </si>
-  <si>
-    <t>1-528-253-0861 x03226</t>
-  </si>
-  <si>
-    <t>440.765.8895</t>
-  </si>
-  <si>
-    <t>+1 (880) 668-5475</t>
+    <t>admin1</t>
+  </si>
+  <si>
+    <t>admin2</t>
+  </si>
+  <si>
+    <t>admin3</t>
+  </si>
+  <si>
+    <t>guru1</t>
+  </si>
+  <si>
+    <t>guru2</t>
+  </si>
+  <si>
+    <t>guru3</t>
+  </si>
+  <si>
+    <t>siswa1</t>
+  </si>
+  <si>
+    <t>siswa2</t>
+  </si>
+  <si>
+    <t>siswa3</t>
+  </si>
+  <si>
+    <t>siswa4</t>
+  </si>
+  <si>
+    <t>siswa5</t>
+  </si>
+  <si>
+    <t>siswa6</t>
+  </si>
+  <si>
+    <t>siswa7</t>
+  </si>
+  <si>
+    <t>siswa8</t>
+  </si>
+  <si>
+    <t>siswa9</t>
+  </si>
+  <si>
+    <t>siswa10</t>
+  </si>
+  <si>
+    <t>siswa11</t>
+  </si>
+  <si>
+    <t>siswa12</t>
+  </si>
+  <si>
+    <t>siswa13</t>
+  </si>
+  <si>
+    <t>siswa14</t>
+  </si>
+  <si>
+    <t>siswa15</t>
+  </si>
+  <si>
+    <t>siswa16</t>
+  </si>
+  <si>
+    <t>siswa17</t>
+  </si>
+  <si>
+    <t>siswa18</t>
+  </si>
+  <si>
+    <t>siswa19</t>
+  </si>
+  <si>
+    <t>siswa20</t>
   </si>
 </sst>
 </file>
@@ -286,7 +212,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -321,7 +247,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -498,7 +424,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -506,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,16 +468,14 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
+        <v>6</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;"@tes.com"</f>
+        <v>admin1@tes.com</v>
+      </c>
+      <c r="D2">
+        <v>12345678</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -562,19 +486,17 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C27" si="0">A3&amp;"@tes.com"</f>
+        <v>admin2@tes.com</v>
+      </c>
+      <c r="D3">
+        <v>12345678</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -582,19 +504,17 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>admin3@tes.com</v>
+      </c>
+      <c r="D4">
+        <v>12345678</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -602,19 +522,17 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
+        <v>9</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>guru1@tes.com</v>
+      </c>
+      <c r="D5">
+        <v>12345678</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -622,17 +540,14 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6">
-        <f>1-479-628-5425</f>
-        <v>-6531</v>
+        <v>10</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>guru2@tes.com</v>
+      </c>
+      <c r="D6">
+        <v>12345678</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -643,19 +558,17 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
+        <v>11</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>guru3@tes.com</v>
+      </c>
+      <c r="D7">
+        <v>12345678</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -663,19 +576,17 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
+        <v>12</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>siswa1@tes.com</v>
+      </c>
+      <c r="D8">
+        <v>12345678</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -683,19 +594,17 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>52</v>
+        <v>13</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>siswa2@tes.com</v>
+      </c>
+      <c r="D9">
+        <v>12345678</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -703,16 +612,14 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>53</v>
+        <v>14</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>siswa3@tes.com</v>
+      </c>
+      <c r="D10">
+        <v>12345678</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -723,19 +630,305 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>siswa4@tes.com</v>
+      </c>
+      <c r="D11">
+        <v>12345678</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>siswa5@tes.com</v>
+      </c>
+      <c r="D12">
+        <v>12345678</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>siswa6@tes.com</v>
+      </c>
+      <c r="D13">
+        <v>12345678</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>siswa7@tes.com</v>
+      </c>
+      <c r="D14">
+        <v>12345678</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>siswa8@tes.com</v>
+      </c>
+      <c r="D15">
+        <v>12345678</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>siswa9@tes.com</v>
+      </c>
+      <c r="D16">
+        <v>12345678</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>siswa10@tes.com</v>
+      </c>
+      <c r="D17">
+        <v>12345678</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>siswa11@tes.com</v>
+      </c>
+      <c r="D18">
+        <v>12345678</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>siswa12@tes.com</v>
+      </c>
+      <c r="D19">
+        <v>12345678</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>siswa13@tes.com</v>
+      </c>
+      <c r="D20">
+        <v>12345678</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>siswa14@tes.com</v>
+      </c>
+      <c r="D21">
+        <v>12345678</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>siswa15@tes.com</v>
+      </c>
+      <c r="D22">
+        <v>12345678</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>siswa16@tes.com</v>
+      </c>
+      <c r="D23">
+        <v>12345678</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>siswa17@tes.com</v>
+      </c>
+      <c r="D24">
+        <v>12345678</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>siswa18@tes.com</v>
+      </c>
+      <c r="D25">
+        <v>12345678</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>siswa19@tes.com</v>
+      </c>
+      <c r="D26">
+        <v>12345678</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>siswa20@tes.com</v>
+      </c>
+      <c r="D27">
+        <v>12345678</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -745,6 +938,5 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Referensi" prompt="Admin : 1_x000a_Guru : 2_x000a_Siswa : 3" sqref="F1:F1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/uploads/template_users.xlsx
+++ b/uploads/template_users.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS-A407M\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>First Name</t>
   </si>
@@ -39,22 +44,22 @@
     <t>Category</t>
   </si>
   <si>
-    <t>admin1</t>
-  </si>
-  <si>
-    <t>admin2</t>
-  </si>
-  <si>
-    <t>admin3</t>
-  </si>
-  <si>
     <t>guru1</t>
   </si>
   <si>
+    <t>guru1@tes.com</t>
+  </si>
+  <si>
     <t>guru2</t>
   </si>
   <si>
     <t>guru3</t>
+  </si>
+  <si>
+    <t>guru2@tes.com</t>
+  </si>
+  <si>
+    <t>guru3@tes.com</t>
   </si>
   <si>
     <t>siswa1</t>
@@ -121,10 +126,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -147,13 +160,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -212,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -247,7 +263,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -424,7 +440,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -432,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,120 +483,96 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="str">
-        <f>A2&amp;"@tes.com"</f>
-        <v>admin1@tes.com</v>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D2">
         <v>12345678</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C27" si="0">A3&amp;"@tes.com"</f>
-        <v>admin2@tes.com</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D3">
         <v>12345678</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>admin3@tes.com</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D4">
         <v>12345678</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>guru1@tes.com</v>
+        <f>A5&amp;"@tes.com"</f>
+        <v>siswa1@tes.com</v>
       </c>
       <c r="D5">
         <v>12345678</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>guru2@tes.com</v>
+        <f t="shared" ref="C6:C24" si="0">A6&amp;"@tes.com"</f>
+        <v>siswa2@tes.com</v>
       </c>
       <c r="D6">
         <v>12345678</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>guru3@tes.com</v>
+        <v>siswa3@tes.com</v>
       </c>
       <c r="D7">
         <v>12345678</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>siswa1@tes.com</v>
+        <v>siswa4@tes.com</v>
       </c>
       <c r="D8">
         <v>12345678</v>
@@ -591,14 +583,11 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
-        <v>siswa2@tes.com</v>
+        <v>siswa5@tes.com</v>
       </c>
       <c r="D9">
         <v>12345678</v>
@@ -609,14 +598,11 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>siswa3@tes.com</v>
+        <v>siswa6@tes.com</v>
       </c>
       <c r="D10">
         <v>12345678</v>
@@ -627,14 +613,11 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
-        <v>siswa4@tes.com</v>
+        <v>siswa7@tes.com</v>
       </c>
       <c r="D11">
         <v>12345678</v>
@@ -645,14 +628,11 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
-        <v>siswa5@tes.com</v>
+        <v>siswa8@tes.com</v>
       </c>
       <c r="D12">
         <v>12345678</v>
@@ -663,14 +643,11 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>siswa6@tes.com</v>
+        <v>siswa9@tes.com</v>
       </c>
       <c r="D13">
         <v>12345678</v>
@@ -681,14 +658,11 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>siswa7@tes.com</v>
+        <v>siswa10@tes.com</v>
       </c>
       <c r="D14">
         <v>12345678</v>
@@ -699,14 +673,11 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>siswa8@tes.com</v>
+        <v>siswa11@tes.com</v>
       </c>
       <c r="D15">
         <v>12345678</v>
@@ -717,14 +688,11 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>siswa9@tes.com</v>
+        <v>siswa12@tes.com</v>
       </c>
       <c r="D16">
         <v>12345678</v>
@@ -735,14 +703,11 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>siswa10@tes.com</v>
+        <v>siswa13@tes.com</v>
       </c>
       <c r="D17">
         <v>12345678</v>
@@ -753,14 +718,11 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
-        <v>siswa11@tes.com</v>
+        <v>siswa14@tes.com</v>
       </c>
       <c r="D18">
         <v>12345678</v>
@@ -771,14 +733,11 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
-        <v>siswa12@tes.com</v>
+        <v>siswa15@tes.com</v>
       </c>
       <c r="D19">
         <v>12345678</v>
@@ -789,14 +748,11 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
-        <v>siswa13@tes.com</v>
+        <v>siswa16@tes.com</v>
       </c>
       <c r="D20">
         <v>12345678</v>
@@ -807,14 +763,11 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
-        <v>siswa14@tes.com</v>
+        <v>siswa17@tes.com</v>
       </c>
       <c r="D21">
         <v>12345678</v>
@@ -825,14 +778,11 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>siswa15@tes.com</v>
+        <v>siswa18@tes.com</v>
       </c>
       <c r="D22">
         <v>12345678</v>
@@ -843,14 +793,11 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
-        <v>siswa16@tes.com</v>
+        <v>siswa19@tes.com</v>
       </c>
       <c r="D23">
         <v>12345678</v>
@@ -861,73 +808,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
-        <v>siswa17@tes.com</v>
+        <v>siswa20@tes.com</v>
       </c>
       <c r="D24">
         <v>12345678</v>
       </c>
       <c r="F24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v>siswa18@tes.com</v>
-      </c>
-      <c r="D25">
-        <v>12345678</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v>siswa19@tes.com</v>
-      </c>
-      <c r="D26">
-        <v>12345678</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v>siswa20@tes.com</v>
-      </c>
-      <c r="D27">
-        <v>12345678</v>
-      </c>
-      <c r="F27">
         <v>3</v>
       </c>
     </row>
@@ -937,6 +827,12 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Awali dengan kode negara 62" sqref="E1:E1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Referensi" prompt="Admin : 1_x000a_Guru : 2_x000a_Siswa : 3" sqref="F1:F1048576"/>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/uploads/template_users.xlsx
+++ b/uploads/template_users.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>First Name</t>
   </si>
@@ -44,22 +44,25 @@
     <t>Category</t>
   </si>
   <si>
-    <t>guru1</t>
-  </si>
-  <si>
-    <t>guru1@tes.com</t>
-  </si>
-  <si>
-    <t>guru2</t>
-  </si>
-  <si>
-    <t>guru3</t>
-  </si>
-  <si>
-    <t>guru2@tes.com</t>
-  </si>
-  <si>
-    <t>guru3@tes.com</t>
+    <t>guru</t>
+  </si>
+  <si>
+    <t>bin</t>
+  </si>
+  <si>
+    <t>mtk</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>gurubin@tes.com</t>
+  </si>
+  <si>
+    <t>gurumtk@tes.com</t>
+  </si>
+  <si>
+    <t>gurubig@tes.com</t>
   </si>
   <si>
     <t>siswa1</t>
@@ -87,39 +90,6 @@
   </si>
   <si>
     <t>siswa9</t>
-  </si>
-  <si>
-    <t>siswa10</t>
-  </si>
-  <si>
-    <t>siswa11</t>
-  </si>
-  <si>
-    <t>siswa12</t>
-  </si>
-  <si>
-    <t>siswa13</t>
-  </si>
-  <si>
-    <t>siswa14</t>
-  </si>
-  <si>
-    <t>siswa15</t>
-  </si>
-  <si>
-    <t>siswa16</t>
-  </si>
-  <si>
-    <t>siswa17</t>
-  </si>
-  <si>
-    <t>siswa18</t>
-  </si>
-  <si>
-    <t>siswa19</t>
-  </si>
-  <si>
-    <t>siswa20</t>
   </si>
 </sst>
 </file>
@@ -448,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F6" sqref="F6:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,8 +453,11 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>12345678</v>
@@ -495,10 +468,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>12345678</v>
@@ -509,10 +485,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>12345678</v>
@@ -523,7 +502,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
       </c>
       <c r="C5" t="str">
         <f>A5&amp;"@tes.com"</f>
@@ -538,10 +520,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" ref="C6:C24" si="0">A6&amp;"@tes.com"</f>
+        <f t="shared" ref="C6:C13" si="0">A6&amp;"@tes.com"</f>
         <v>siswa2@tes.com</v>
       </c>
       <c r="D6">
@@ -553,7 +538,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -568,7 +556,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -583,7 +574,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -598,7 +592,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -613,7 +610,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -628,7 +628,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -643,7 +646,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -653,171 +659,6 @@
         <v>12345678</v>
       </c>
       <c r="F13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>siswa10@tes.com</v>
-      </c>
-      <c r="D14">
-        <v>12345678</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>siswa11@tes.com</v>
-      </c>
-      <c r="D15">
-        <v>12345678</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>siswa12@tes.com</v>
-      </c>
-      <c r="D16">
-        <v>12345678</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>siswa13@tes.com</v>
-      </c>
-      <c r="D17">
-        <v>12345678</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>siswa14@tes.com</v>
-      </c>
-      <c r="D18">
-        <v>12345678</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>siswa15@tes.com</v>
-      </c>
-      <c r="D19">
-        <v>12345678</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>siswa16@tes.com</v>
-      </c>
-      <c r="D20">
-        <v>12345678</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>siswa17@tes.com</v>
-      </c>
-      <c r="D21">
-        <v>12345678</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>siswa18@tes.com</v>
-      </c>
-      <c r="D22">
-        <v>12345678</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v>siswa19@tes.com</v>
-      </c>
-      <c r="D23">
-        <v>12345678</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v>siswa20@tes.com</v>
-      </c>
-      <c r="D24">
-        <v>12345678</v>
-      </c>
-      <c r="F24">
         <v>3</v>
       </c>
     </row>
@@ -833,6 +674,5 @@
     <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/uploads/template_users.xlsx
+++ b/uploads/template_users.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS-A407M\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>First Name</t>
   </si>
@@ -44,6 +39,9 @@
     <t>Category</t>
   </si>
   <si>
+    <t>Username</t>
+  </si>
+  <si>
     <t>guru</t>
   </si>
   <si>
@@ -56,6 +54,24 @@
     <t>big</t>
   </si>
   <si>
+    <t>siswa1</t>
+  </si>
+  <si>
+    <t>siswa2</t>
+  </si>
+  <si>
+    <t>siswa3</t>
+  </si>
+  <si>
+    <t>gurubin</t>
+  </si>
+  <si>
+    <t>gurumtk</t>
+  </si>
+  <si>
+    <t>gurubig</t>
+  </si>
+  <si>
     <t>gurubin@tes.com</t>
   </si>
   <si>
@@ -65,31 +81,19 @@
     <t>gurubig@tes.com</t>
   </si>
   <si>
-    <t>siswa1</t>
-  </si>
-  <si>
-    <t>siswa2</t>
-  </si>
-  <si>
-    <t>siswa3</t>
+    <t>siswa1@tes.com</t>
+  </si>
+  <si>
+    <t>siswa2@tes.com</t>
+  </si>
+  <si>
+    <t>siswa3@tes.com</t>
   </si>
   <si>
     <t>siswa4</t>
   </si>
   <si>
-    <t>siswa5</t>
-  </si>
-  <si>
-    <t>siswa6</t>
-  </si>
-  <si>
-    <t>siswa7</t>
-  </si>
-  <si>
-    <t>siswa8</t>
-  </si>
-  <si>
-    <t>siswa9</t>
+    <t>siswa4@tes.com</t>
   </si>
 </sst>
 </file>
@@ -198,7 +202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,7 +237,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -410,7 +414,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -418,18 +422,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,238 +445,181 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>12345678</v>
+      </c>
+      <c r="F2">
+        <v>6285736067133</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>12345678</v>
+      </c>
+      <c r="F3">
+        <v>6285736067133</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
         <v>12345678</v>
       </c>
-      <c r="F2">
+      <c r="F4">
+        <v>6285736067133</v>
+      </c>
+      <c r="G4">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
         <v>12345678</v>
       </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="F5">
+        <v>6285736067133</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="D4">
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
         <v>12345678</v>
       </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F6">
+        <v>6285736067133</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="str">
-        <f>A5&amp;"@tes.com"</f>
-        <v>siswa1@tes.com</v>
-      </c>
-      <c r="D5">
+      <c r="E7">
         <v>12345678</v>
       </c>
-      <c r="F5">
+      <c r="F7">
+        <v>6285736067133</v>
+      </c>
+      <c r="G7">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" ref="C6:C13" si="0">A6&amp;"@tes.com"</f>
-        <v>siswa2@tes.com</v>
-      </c>
-      <c r="D6">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
         <v>12345678</v>
       </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>siswa3@tes.com</v>
-      </c>
-      <c r="D7">
-        <v>12345678</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>siswa4@tes.com</v>
-      </c>
-      <c r="D8">
-        <v>12345678</v>
-      </c>
       <c r="F8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>siswa5@tes.com</v>
-      </c>
-      <c r="D9">
-        <v>12345678</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>siswa6@tes.com</v>
-      </c>
-      <c r="D10">
-        <v>12345678</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>siswa7@tes.com</v>
-      </c>
-      <c r="D11">
-        <v>12345678</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>siswa8@tes.com</v>
-      </c>
-      <c r="D12">
-        <v>12345678</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>siswa9@tes.com</v>
-      </c>
-      <c r="D13">
-        <v>12345678</v>
-      </c>
-      <c r="F13">
+        <v>6285736067133</v>
+      </c>
+      <c r="G8">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" error="Minimal 8 karakter" prompt="Minimal 8 karakter" sqref="D1:D1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Awali dengan kode negara 62" sqref="E1:E1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Referensi" prompt="Admin : 1_x000a_Guru : 2_x000a_Siswa : 3" sqref="F1:F1048576"/>
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" error="Minimal 8 karakter" prompt="Minimal 8 karakter" sqref="E1:E1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Awali dengan kode negara 62" sqref="F1:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Referensi" prompt="Admin : 1_x000a_Guru : 2_x000a_Siswa : 3" sqref="G1:G1048576"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/uploads/template_users.xlsx
+++ b/uploads/template_users.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>First Name</t>
   </si>
@@ -42,76 +42,50 @@
     <t>Username</t>
   </si>
   <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>siswa</t>
+  </si>
+  <si>
     <t>guru</t>
   </si>
   <si>
     <t>bin</t>
   </si>
   <si>
-    <t>mtk</t>
-  </si>
-  <si>
     <t>big</t>
-  </si>
-  <si>
-    <t>siswa1</t>
-  </si>
-  <si>
-    <t>siswa2</t>
-  </si>
-  <si>
-    <t>siswa3</t>
-  </si>
-  <si>
-    <t>gurubin</t>
-  </si>
-  <si>
-    <t>gurumtk</t>
-  </si>
-  <si>
-    <t>gurubig</t>
-  </si>
-  <si>
-    <t>gurubin@tes.com</t>
-  </si>
-  <si>
-    <t>gurumtk@tes.com</t>
-  </si>
-  <si>
-    <t>gurubig@tes.com</t>
-  </si>
-  <si>
-    <t>siswa1@tes.com</t>
-  </si>
-  <si>
-    <t>siswa2@tes.com</t>
-  </si>
-  <si>
-    <t>siswa3@tes.com</t>
-  </si>
-  <si>
-    <t>siswa4</t>
-  </si>
-  <si>
-    <t>siswa4@tes.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,16 +108,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -414,7 +385,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -422,16 +393,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E11" sqref="E11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -462,85 +433,96 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;B2&amp;"@tes.com"</f>
+        <v>csiswa@tes.com</v>
+      </c>
+      <c r="D2" t="str">
+        <f>A2&amp;B2</f>
+        <v>csiswa</v>
       </c>
       <c r="E2">
         <v>12345678</v>
       </c>
       <c r="F2">
-        <v>6285736067133</v>
+        <v>628573133</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C11" si="0">A3&amp;B3&amp;"@tes.com"</f>
+        <v>dsiswa@tes.com</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D11" si="1">A3&amp;B3</f>
+        <v>dsiswa</v>
       </c>
       <c r="E3">
         <v>12345678</v>
       </c>
       <c r="F3">
-        <v>6285736067133</v>
+        <v>628573133</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>esiswa@tes.com</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>esiswa</v>
       </c>
       <c r="E4">
         <v>12345678</v>
       </c>
       <c r="F4">
-        <v>6285736067133</v>
+        <v>628573133</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>fsiswa@tes.com</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>fsiswa</v>
       </c>
       <c r="E5">
         <v>12345678</v>
       </c>
       <c r="F5">
-        <v>6285736067133</v>
+        <v>628573133</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -548,19 +530,24 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>gsiswa@tes.com</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>gsiswa</v>
       </c>
       <c r="E6">
         <v>12345678</v>
       </c>
       <c r="F6">
-        <v>6285736067133</v>
+        <v>628573133</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -568,19 +555,24 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>hsiswa@tes.com</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>hsiswa</v>
       </c>
       <c r="E7">
         <v>12345678</v>
       </c>
       <c r="F7">
-        <v>6285736067133</v>
+        <v>628573133</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -588,21 +580,101 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>isiswa@tes.com</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>isiswa</v>
       </c>
       <c r="E8">
         <v>12345678</v>
       </c>
       <c r="F8">
-        <v>6285736067133</v>
+        <v>628573133</v>
       </c>
       <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>jsiswa@tes.com</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>jsiswa</v>
+      </c>
+      <c r="E9">
+        <v>12345678</v>
+      </c>
+      <c r="F9">
+        <v>628573133</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>binguru@tes.com</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>binguru</v>
+      </c>
+      <c r="E10">
+        <v>12345678</v>
+      </c>
+      <c r="F10">
+        <v>628573133</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>bigguru@tes.com</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>bigguru</v>
+      </c>
+      <c r="E11">
+        <v>12345678</v>
+      </c>
+      <c r="F11">
+        <v>628573133</v>
+      </c>
+      <c r="G11">
         <v>3</v>
       </c>
     </row>
@@ -612,15 +684,6 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Awali dengan kode negara 62" sqref="F1:F1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Referensi" prompt="Admin : 1_x000a_Guru : 2_x000a_Siswa : 3" sqref="G1:G1048576"/>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/uploads/template_users.xlsx
+++ b/uploads/template_users.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS-A407M\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>First Name</t>
   </si>
@@ -42,6 +47,36 @@
     <t>Username</t>
   </si>
   <si>
+    <t>bin</t>
+  </si>
+  <si>
+    <t>guru</t>
+  </si>
+  <si>
+    <t>binguru@tes.com</t>
+  </si>
+  <si>
+    <t>binguru</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>bigguru@tes.com</t>
+  </si>
+  <si>
+    <t>bigguru</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>siswa</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
     <t>c</t>
   </si>
   <si>
@@ -64,28 +99,24 @@
   </si>
   <si>
     <t>j</t>
-  </si>
-  <si>
-    <t>siswa</t>
-  </si>
-  <si>
-    <t>guru</t>
-  </si>
-  <si>
-    <t>bin</t>
-  </si>
-  <si>
-    <t>big</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,13 +139,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -385,7 +419,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -393,16 +427,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:G11"/>
+      <selection activeCell="G4" sqref="G4:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -433,248 +467,294 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="str">
-        <f>A2&amp;B2&amp;"@tes.com"</f>
-        <v>csiswa@tes.com</v>
-      </c>
-      <c r="D2" t="str">
-        <f>A2&amp;B2</f>
-        <v>csiswa</v>
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
       </c>
       <c r="E2">
         <v>12345678</v>
       </c>
       <c r="F2">
-        <v>628573133</v>
+        <v>6285736067133</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C11" si="0">A3&amp;B3&amp;"@tes.com"</f>
-        <v>dsiswa@tes.com</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D11" si="1">A3&amp;B3</f>
-        <v>dsiswa</v>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
       </c>
       <c r="E3">
         <v>12345678</v>
       </c>
       <c r="F3">
-        <v>628573133</v>
+        <v>6285736067133</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="str">
+        <f>A4&amp;B4&amp;"@tes.com"</f>
+        <v>asiswa@tes.com</v>
+      </c>
+      <c r="D4" t="str">
+        <f>A4&amp;B4</f>
+        <v>asiswa</v>
+      </c>
+      <c r="E4">
+        <v>12345678</v>
+      </c>
+      <c r="F4">
+        <v>6285736067133</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5:C13" si="0">A5&amp;B5&amp;"@tes.com"</f>
+        <v>bsiswa@tes.com</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" ref="D5:D13" si="1">A5&amp;B5</f>
+        <v>bsiswa</v>
+      </c>
+      <c r="E5">
+        <v>12345678</v>
+      </c>
+      <c r="F5">
+        <v>6285736067133</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>csiswa@tes.com</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>csiswa</v>
+      </c>
+      <c r="E6">
+        <v>12345678</v>
+      </c>
+      <c r="F6">
+        <v>6285736067133</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>dsiswa@tes.com</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>dsiswa</v>
+      </c>
+      <c r="E7">
+        <v>12345678</v>
+      </c>
+      <c r="F7">
+        <v>6285736067133</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v>esiswa@tes.com</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D8" t="str">
         <f t="shared" si="1"/>
         <v>esiswa</v>
       </c>
-      <c r="E4">
-        <v>12345678</v>
-      </c>
-      <c r="F4">
-        <v>628573133</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="str">
+      <c r="E8">
+        <v>12345678</v>
+      </c>
+      <c r="F8">
+        <v>6285736067133</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v>fsiswa@tes.com</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D9" t="str">
         <f t="shared" si="1"/>
         <v>fsiswa</v>
       </c>
-      <c r="E5">
-        <v>12345678</v>
-      </c>
-      <c r="F5">
-        <v>628573133</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="str">
+      <c r="E9">
+        <v>12345678</v>
+      </c>
+      <c r="F9">
+        <v>6285736067133</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="str">
         <f t="shared" si="0"/>
         <v>gsiswa@tes.com</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D10" t="str">
         <f t="shared" si="1"/>
         <v>gsiswa</v>
       </c>
-      <c r="E6">
-        <v>12345678</v>
-      </c>
-      <c r="F6">
-        <v>628573133</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="str">
+      <c r="E10">
+        <v>12345678</v>
+      </c>
+      <c r="F10">
+        <v>6285736067133</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v>hsiswa@tes.com</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D11" t="str">
         <f t="shared" si="1"/>
         <v>hsiswa</v>
       </c>
-      <c r="E7">
-        <v>12345678</v>
-      </c>
-      <c r="F7">
-        <v>628573133</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="str">
+      <c r="E11">
+        <v>12345678</v>
+      </c>
+      <c r="F11">
+        <v>6285736067133</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="str">
         <f t="shared" si="0"/>
         <v>isiswa@tes.com</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D12" t="str">
         <f t="shared" si="1"/>
         <v>isiswa</v>
       </c>
-      <c r="E8">
-        <v>12345678</v>
-      </c>
-      <c r="F8">
-        <v>628573133</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="str">
+      <c r="E12">
+        <v>12345678</v>
+      </c>
+      <c r="F12">
+        <v>6285736067133</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="str">
         <f t="shared" si="0"/>
         <v>jsiswa@tes.com</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D13" t="str">
         <f t="shared" si="1"/>
         <v>jsiswa</v>
       </c>
-      <c r="E9">
-        <v>12345678</v>
-      </c>
-      <c r="F9">
-        <v>628573133</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>binguru@tes.com</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="1"/>
-        <v>binguru</v>
-      </c>
-      <c r="E10">
-        <v>12345678</v>
-      </c>
-      <c r="F10">
-        <v>628573133</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>bigguru@tes.com</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="1"/>
-        <v>bigguru</v>
-      </c>
-      <c r="E11">
-        <v>12345678</v>
-      </c>
-      <c r="F11">
-        <v>628573133</v>
-      </c>
-      <c r="G11">
+      <c r="E13">
+        <v>12345678</v>
+      </c>
+      <c r="F13">
+        <v>6285736067133</v>
+      </c>
+      <c r="G13">
         <v>3</v>
       </c>
     </row>
@@ -684,6 +764,10 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Awali dengan kode negara 62" sqref="F1:F1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Referensi" prompt="Admin : 1_x000a_Guru : 2_x000a_Siswa : 3" sqref="G1:G1048576"/>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/uploads/template_users.xlsx
+++ b/uploads/template_users.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS-A407M\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>First Name</t>
   </si>
@@ -47,76 +42,50 @@
     <t>Username</t>
   </si>
   <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>siswa</t>
+  </si>
+  <si>
+    <t>guru</t>
+  </si>
+  <si>
     <t>bin</t>
   </si>
   <si>
-    <t>guru</t>
-  </si>
-  <si>
-    <t>binguru@tes.com</t>
-  </si>
-  <si>
-    <t>binguru</t>
-  </si>
-  <si>
     <t>big</t>
-  </si>
-  <si>
-    <t>bigguru@tes.com</t>
-  </si>
-  <si>
-    <t>bigguru</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>siswa</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>j</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -139,16 +108,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -419,7 +385,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -427,16 +393,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G13"/>
+      <selection activeCell="E11" sqref="E11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -467,67 +433,71 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;B2&amp;"@tes.com"</f>
+        <v>csiswa@tes.com</v>
+      </c>
+      <c r="D2" t="str">
+        <f>A2&amp;B2</f>
+        <v>csiswa</v>
       </c>
       <c r="E2">
         <v>12345678</v>
       </c>
       <c r="F2">
-        <v>6285736067133</v>
+        <v>628573133</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C11" si="0">A3&amp;B3&amp;"@tes.com"</f>
+        <v>dsiswa@tes.com</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D11" si="1">A3&amp;B3</f>
+        <v>dsiswa</v>
       </c>
       <c r="E3">
         <v>12345678</v>
       </c>
       <c r="F3">
-        <v>6285736067133</v>
+        <v>628573133</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="str">
-        <f>A4&amp;B4&amp;"@tes.com"</f>
-        <v>asiswa@tes.com</v>
+        <f t="shared" si="0"/>
+        <v>esiswa@tes.com</v>
       </c>
       <c r="D4" t="str">
-        <f>A4&amp;B4</f>
-        <v>asiswa</v>
+        <f t="shared" si="1"/>
+        <v>esiswa</v>
       </c>
       <c r="E4">
         <v>12345678</v>
       </c>
       <c r="F4">
-        <v>6285736067133</v>
+        <v>628573133</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -535,24 +505,24 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ref="C5:C13" si="0">A5&amp;B5&amp;"@tes.com"</f>
-        <v>bsiswa@tes.com</v>
+        <f t="shared" si="0"/>
+        <v>fsiswa@tes.com</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" ref="D5:D13" si="1">A5&amp;B5</f>
-        <v>bsiswa</v>
+        <f t="shared" si="1"/>
+        <v>fsiswa</v>
       </c>
       <c r="E5">
         <v>12345678</v>
       </c>
       <c r="F5">
-        <v>6285736067133</v>
+        <v>628573133</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -560,24 +530,24 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>csiswa@tes.com</v>
+        <v>gsiswa@tes.com</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="1"/>
-        <v>csiswa</v>
+        <v>gsiswa</v>
       </c>
       <c r="E6">
         <v>12345678</v>
       </c>
       <c r="F6">
-        <v>6285736067133</v>
+        <v>628573133</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -585,24 +555,24 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>dsiswa@tes.com</v>
+        <v>hsiswa@tes.com</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="1"/>
-        <v>dsiswa</v>
+        <v>hsiswa</v>
       </c>
       <c r="E7">
         <v>12345678</v>
       </c>
       <c r="F7">
-        <v>6285736067133</v>
+        <v>628573133</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -610,24 +580,24 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>esiswa@tes.com</v>
+        <v>isiswa@tes.com</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="1"/>
-        <v>esiswa</v>
+        <v>isiswa</v>
       </c>
       <c r="E8">
         <v>12345678</v>
       </c>
       <c r="F8">
-        <v>6285736067133</v>
+        <v>628573133</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -635,24 +605,24 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
-        <v>fsiswa@tes.com</v>
+        <v>jsiswa@tes.com</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="1"/>
-        <v>fsiswa</v>
+        <v>jsiswa</v>
       </c>
       <c r="E9">
         <v>12345678</v>
       </c>
       <c r="F9">
-        <v>6285736067133</v>
+        <v>628573133</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -660,24 +630,24 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>gsiswa@tes.com</v>
+        <v>binguru@tes.com</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="1"/>
-        <v>gsiswa</v>
+        <v>binguru</v>
       </c>
       <c r="E10">
         <v>12345678</v>
       </c>
       <c r="F10">
-        <v>6285736067133</v>
+        <v>628573133</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -685,76 +655,26 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
-        <v>hsiswa@tes.com</v>
+        <v>bigguru@tes.com</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="1"/>
-        <v>hsiswa</v>
+        <v>bigguru</v>
       </c>
       <c r="E11">
         <v>12345678</v>
       </c>
       <c r="F11">
-        <v>6285736067133</v>
+        <v>628573133</v>
       </c>
       <c r="G11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>isiswa@tes.com</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="1"/>
-        <v>isiswa</v>
-      </c>
-      <c r="E12">
-        <v>12345678</v>
-      </c>
-      <c r="F12">
-        <v>6285736067133</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>jsiswa@tes.com</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="1"/>
-        <v>jsiswa</v>
-      </c>
-      <c r="E13">
-        <v>12345678</v>
-      </c>
-      <c r="F13">
-        <v>6285736067133</v>
-      </c>
-      <c r="G13">
         <v>3</v>
       </c>
     </row>
@@ -764,10 +684,6 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Awali dengan kode negara 62" sqref="F1:F1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Referensi" prompt="Admin : 1_x000a_Guru : 2_x000a_Siswa : 3" sqref="G1:G1048576"/>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>